--- a/ANVNSequential_weight.xlsx
+++ b/ANVNSequential_weight.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wbott\wbottom_Thesis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wbott\OneDrive\Desktop\wbottom_Thesis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{658ACCEE-88EB-4ED2-982C-AB2830C0F10D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40AE746A-108D-486F-9FCE-4FEDBEC12D68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -911,6 +911,7 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="1560503775"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -1801,6 +1802,7 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="1706769135"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -2691,6 +2693,7 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="1794715039"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -4395,6 +4398,7 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="1780879855"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -5289,6 +5293,7 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="1780890895"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -6183,6 +6188,7 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="1794745759"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -7077,6 +7083,7 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="1780858255"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -7971,6 +7978,7 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="1780908175"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -8865,6 +8873,7 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="1780864975"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -9759,6 +9768,7 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="1780860175"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -11291,6 +11301,7 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="1706751855"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -12686,6 +12697,7 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="1706769615"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -13576,6 +13588,7 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="1560482175"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -14466,6 +14479,7 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="1794715999"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -15356,6 +15370,7 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="1706796495"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -16246,6 +16261,7 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="1560481695"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -26214,9 +26230,9 @@
       <selection activeCell="N59" sqref="N59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -26338,7 +26354,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -26460,7 +26476,7 @@
         <v>433.34561157226563</v>
       </c>
     </row>
-    <row r="3" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -26582,7 +26598,7 @@
         <v>973.44134521484375</v>
       </c>
     </row>
-    <row r="4" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -26704,7 +26720,7 @@
         <v>1579.350952148438</v>
       </c>
     </row>
-    <row r="5" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
@@ -26826,7 +26842,7 @@
         <v>1531.985473632812</v>
       </c>
     </row>
-    <row r="6" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1</v>
       </c>
@@ -26948,7 +26964,7 @@
         <v>1659.246948242188</v>
       </c>
     </row>
-    <row r="7" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1</v>
       </c>
@@ -27070,7 +27086,7 @@
         <v>2347.13134765625</v>
       </c>
     </row>
-    <row r="8" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1</v>
       </c>
@@ -27192,7 +27208,7 @@
         <v>2329.438232421875</v>
       </c>
     </row>
-    <row r="9" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1</v>
       </c>
@@ -27314,7 +27330,7 @@
         <v>2377.866943359375</v>
       </c>
     </row>
-    <row r="10" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1</v>
       </c>
@@ -27436,7 +27452,7 @@
         <v>2205.069091796875</v>
       </c>
     </row>
-    <row r="11" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1</v>
       </c>
@@ -27558,7 +27574,7 @@
         <v>2324.084716796875</v>
       </c>
     </row>
-    <row r="12" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1</v>
       </c>
@@ -27680,7 +27696,7 @@
         <v>2696.10009765625</v>
       </c>
     </row>
-    <row r="13" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1</v>
       </c>
@@ -27802,7 +27818,7 @@
         <v>2972.90869140625</v>
       </c>
     </row>
-    <row r="14" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1</v>
       </c>
@@ -27924,7 +27940,7 @@
         <v>3503.536865234375</v>
       </c>
     </row>
-    <row r="15" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>1</v>
       </c>
@@ -28046,7 +28062,7 @@
         <v>3383.919921875</v>
       </c>
     </row>
-    <row r="16" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1</v>
       </c>
@@ -28168,7 +28184,7 @@
         <v>2496.2734375</v>
       </c>
     </row>
-    <row r="17" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>1</v>
       </c>
@@ -28290,7 +28306,7 @@
         <v>3434.468505859375</v>
       </c>
     </row>
-    <row r="18" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>1</v>
       </c>
@@ -28412,7 +28428,7 @@
         <v>2968.06884765625</v>
       </c>
     </row>
-    <row r="19" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>1</v>
       </c>
@@ -28534,7 +28550,7 @@
         <v>2565.059814453125</v>
       </c>
     </row>
-    <row r="20" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>1</v>
       </c>
@@ -28656,7 +28672,7 @@
         <v>3810.78955078125</v>
       </c>
     </row>
-    <row r="21" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>1</v>
       </c>
@@ -28778,7 +28794,7 @@
         <v>3423.954833984375</v>
       </c>
     </row>
-    <row r="22" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:40" x14ac:dyDescent="0.25">
       <c r="C22">
         <v>1</v>
       </c>
@@ -28894,7 +28910,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="25" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>2</v>
       </c>
@@ -28902,7 +28918,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="26" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>2</v>
       </c>
@@ -28910,7 +28926,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="27" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>2</v>
       </c>
@@ -28918,7 +28934,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="28" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>2</v>
       </c>
@@ -28926,7 +28942,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="29" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>2</v>
       </c>
@@ -28934,7 +28950,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="30" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>2</v>
       </c>
@@ -28942,7 +28958,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="31" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>2</v>
       </c>
@@ -28950,7 +28966,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="32" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>2</v>
       </c>
@@ -28958,7 +28974,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>2</v>
       </c>
@@ -28966,7 +28982,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>2</v>
       </c>
@@ -28974,7 +28990,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>2</v>
       </c>
@@ -28982,7 +28998,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>2</v>
       </c>
@@ -28990,7 +29006,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>2</v>
       </c>
@@ -28998,7 +29014,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>2</v>
       </c>
@@ -29006,7 +29022,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>2</v>
       </c>
@@ -29014,7 +29030,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>2</v>
       </c>
@@ -29022,7 +29038,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>2</v>
       </c>
@@ -29030,7 +29046,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>4</v>
       </c>
@@ -29038,7 +29054,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>4</v>
       </c>
@@ -29046,7 +29062,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>4</v>
       </c>
@@ -29054,7 +29070,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>4</v>
       </c>
@@ -29062,7 +29078,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>4</v>
       </c>
@@ -29070,7 +29086,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>4</v>
       </c>
@@ -29078,7 +29094,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>4</v>
       </c>
@@ -29086,7 +29102,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>4</v>
       </c>
@@ -29094,7 +29110,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>4</v>
       </c>
@@ -29102,7 +29118,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>4</v>
       </c>
@@ -29110,7 +29126,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>4</v>
       </c>
@@ -29118,7 +29134,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>4</v>
       </c>
@@ -29126,7 +29142,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>4</v>
       </c>
@@ -29134,7 +29150,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>4</v>
       </c>
@@ -29142,7 +29158,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>4</v>
       </c>
@@ -29150,7 +29166,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>4</v>
       </c>
@@ -29158,7 +29174,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>4</v>
       </c>
@@ -29166,7 +29182,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>4</v>
       </c>
@@ -29174,7 +29190,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>4</v>
       </c>
@@ -29182,7 +29198,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>4</v>
       </c>
@@ -29190,7 +29206,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>6</v>
       </c>
@@ -29198,7 +29214,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>6</v>
       </c>
@@ -29206,7 +29222,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>6</v>
       </c>
@@ -29214,7 +29230,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>6</v>
       </c>
@@ -29222,7 +29238,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>6</v>
       </c>
@@ -29230,7 +29246,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>6</v>
       </c>
@@ -29238,7 +29254,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>6</v>
       </c>
@@ -29246,7 +29262,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>6</v>
       </c>
@@ -29254,7 +29270,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>6</v>
       </c>
@@ -29262,7 +29278,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>6</v>
       </c>
@@ -29270,7 +29286,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>6</v>
       </c>
@@ -29278,7 +29294,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>6</v>
       </c>
@@ -29286,7 +29302,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>6</v>
       </c>
@@ -29294,7 +29310,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>6</v>
       </c>
@@ -29302,7 +29318,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>6</v>
       </c>
@@ -29310,7 +29326,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>6</v>
       </c>
@@ -29318,7 +29334,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>6</v>
       </c>
@@ -29326,7 +29342,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>6</v>
       </c>
@@ -29334,7 +29350,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>6</v>
       </c>
@@ -29342,7 +29358,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>6</v>
       </c>
@@ -29350,7 +29366,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>8</v>
       </c>
@@ -29358,7 +29374,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>8</v>
       </c>
@@ -29366,7 +29382,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>8</v>
       </c>
@@ -29374,7 +29390,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>8</v>
       </c>
@@ -29382,7 +29398,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>8</v>
       </c>
@@ -29390,7 +29406,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>8</v>
       </c>
@@ -29398,7 +29414,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>8</v>
       </c>
@@ -29406,7 +29422,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>8</v>
       </c>
@@ -29414,7 +29430,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>8</v>
       </c>
@@ -29422,7 +29438,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>8</v>
       </c>
@@ -29430,7 +29446,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>8</v>
       </c>
@@ -29438,7 +29454,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>8</v>
       </c>
@@ -29446,7 +29462,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>8</v>
       </c>
@@ -29454,7 +29470,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>8</v>
       </c>
@@ -29462,7 +29478,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>8</v>
       </c>
@@ -29470,7 +29486,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>8</v>
       </c>
@@ -29478,7 +29494,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>8</v>
       </c>
@@ -29486,7 +29502,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>8</v>
       </c>
@@ -29494,7 +29510,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>8</v>
       </c>
@@ -29502,7 +29518,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>8</v>
       </c>
@@ -29510,7 +29526,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>10</v>
       </c>
@@ -29518,7 +29534,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>10</v>
       </c>
@@ -29526,7 +29542,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>10</v>
       </c>
@@ -29534,7 +29550,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>10</v>
       </c>
@@ -29542,7 +29558,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>10</v>
       </c>
@@ -29550,7 +29566,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>10</v>
       </c>
@@ -29558,7 +29574,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>10</v>
       </c>
@@ -29566,7 +29582,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>10</v>
       </c>
@@ -29574,7 +29590,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>10</v>
       </c>
@@ -29582,7 +29598,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>10</v>
       </c>
@@ -29590,7 +29606,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>10</v>
       </c>
@@ -29598,7 +29614,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>10</v>
       </c>
@@ -29606,7 +29622,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>10</v>
       </c>
@@ -29614,7 +29630,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>10</v>
       </c>
@@ -29622,7 +29638,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>10</v>
       </c>
@@ -29630,7 +29646,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>10</v>
       </c>
@@ -29638,7 +29654,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>10</v>
       </c>
@@ -29646,7 +29662,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>10</v>
       </c>
@@ -29654,7 +29670,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>10</v>
       </c>
@@ -29662,7 +29678,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>10</v>
       </c>
@@ -29670,7 +29686,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>12</v>
       </c>
@@ -29678,7 +29694,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>12</v>
       </c>
@@ -29686,7 +29702,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>12</v>
       </c>
@@ -29694,7 +29710,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>12</v>
       </c>
@@ -29702,7 +29718,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>12</v>
       </c>
@@ -29710,7 +29726,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>12</v>
       </c>
@@ -29718,7 +29734,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>12</v>
       </c>
@@ -29726,7 +29742,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>12</v>
       </c>
@@ -29734,7 +29750,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>12</v>
       </c>
@@ -29742,7 +29758,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>12</v>
       </c>
@@ -29750,7 +29766,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>12</v>
       </c>
@@ -29758,7 +29774,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>12</v>
       </c>
@@ -29766,7 +29782,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>12</v>
       </c>
@@ -29774,7 +29790,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>12</v>
       </c>
@@ -29782,7 +29798,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>12</v>
       </c>
@@ -29790,7 +29806,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>12</v>
       </c>
@@ -29798,7 +29814,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>12</v>
       </c>
@@ -29806,7 +29822,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>12</v>
       </c>
@@ -29814,7 +29830,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>12</v>
       </c>
@@ -29822,7 +29838,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>12</v>
       </c>
@@ -29830,7 +29846,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>14</v>
       </c>
@@ -29838,7 +29854,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>14</v>
       </c>
@@ -29846,7 +29862,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>14</v>
       </c>
@@ -29854,7 +29870,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>14</v>
       </c>
@@ -29862,7 +29878,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>14</v>
       </c>
@@ -29870,7 +29886,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>14</v>
       </c>
@@ -29878,7 +29894,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>14</v>
       </c>
@@ -29886,7 +29902,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>14</v>
       </c>
@@ -29894,7 +29910,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>14</v>
       </c>
@@ -29902,7 +29918,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>14</v>
       </c>
@@ -29910,7 +29926,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>14</v>
       </c>
@@ -29918,7 +29934,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>14</v>
       </c>
@@ -29926,7 +29942,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>14</v>
       </c>
@@ -29934,7 +29950,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>14</v>
       </c>
@@ -29942,7 +29958,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>14</v>
       </c>
@@ -29950,7 +29966,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>14</v>
       </c>
@@ -29958,7 +29974,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>14</v>
       </c>
@@ -29966,7 +29982,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>14</v>
       </c>
@@ -29974,7 +29990,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>14</v>
       </c>
@@ -29982,7 +29998,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>14</v>
       </c>
@@ -29990,7 +30006,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>16</v>
       </c>
@@ -29998,7 +30014,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>16</v>
       </c>
@@ -30006,7 +30022,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>16</v>
       </c>
@@ -30014,7 +30030,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>16</v>
       </c>
@@ -30022,7 +30038,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>16</v>
       </c>
@@ -30030,7 +30046,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>16</v>
       </c>
@@ -30038,7 +30054,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>16</v>
       </c>
@@ -30046,7 +30062,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>16</v>
       </c>
@@ -30054,7 +30070,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>16</v>
       </c>
@@ -30062,7 +30078,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>16</v>
       </c>
@@ -30070,7 +30086,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>16</v>
       </c>
@@ -30078,7 +30094,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>16</v>
       </c>
@@ -30086,7 +30102,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>16</v>
       </c>
@@ -30094,7 +30110,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>16</v>
       </c>
@@ -30102,7 +30118,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>16</v>
       </c>
@@ -30110,7 +30126,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>16</v>
       </c>
@@ -30118,7 +30134,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>16</v>
       </c>
@@ -30126,7 +30142,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>16</v>
       </c>
@@ -30134,7 +30150,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>16</v>
       </c>
@@ -30142,7 +30158,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>16</v>
       </c>
@@ -30150,7 +30166,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>18</v>
       </c>
@@ -30158,7 +30174,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>18</v>
       </c>
@@ -30166,7 +30182,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>18</v>
       </c>
@@ -30174,7 +30190,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>18</v>
       </c>
@@ -30182,7 +30198,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>18</v>
       </c>
@@ -30190,7 +30206,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>18</v>
       </c>
@@ -30198,7 +30214,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>18</v>
       </c>
@@ -30206,7 +30222,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>18</v>
       </c>
@@ -30214,7 +30230,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>18</v>
       </c>
@@ -30222,7 +30238,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>18</v>
       </c>
@@ -30230,7 +30246,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>18</v>
       </c>
@@ -30238,7 +30254,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>18</v>
       </c>
@@ -30246,7 +30262,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>18</v>
       </c>
@@ -30254,7 +30270,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>18</v>
       </c>
@@ -30262,7 +30278,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>18</v>
       </c>
@@ -30270,7 +30286,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>18</v>
       </c>
@@ -30278,7 +30294,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>18</v>
       </c>
@@ -30286,7 +30302,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>18</v>
       </c>
@@ -30294,7 +30310,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>18</v>
       </c>
@@ -30302,7 +30318,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>18</v>
       </c>
@@ -30310,7 +30326,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>20</v>
       </c>
@@ -30318,7 +30334,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>20</v>
       </c>
@@ -30326,7 +30342,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>20</v>
       </c>
@@ -30334,7 +30350,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>20</v>
       </c>
@@ -30342,7 +30358,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>20</v>
       </c>
@@ -30350,7 +30366,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>20</v>
       </c>
@@ -30358,7 +30374,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>20</v>
       </c>
@@ -30366,7 +30382,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>20</v>
       </c>
@@ -30374,7 +30390,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>20</v>
       </c>
@@ -30382,7 +30398,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>20</v>
       </c>
@@ -30390,7 +30406,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>20</v>
       </c>
@@ -30398,7 +30414,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>20</v>
       </c>
@@ -30406,7 +30422,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>20</v>
       </c>
@@ -30414,7 +30430,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>20</v>
       </c>
@@ -30422,7 +30438,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>20</v>
       </c>
@@ -30430,7 +30446,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>20</v>
       </c>
@@ -30438,7 +30454,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>20</v>
       </c>
@@ -30446,7 +30462,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>20</v>
       </c>
@@ -30454,7 +30470,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>20</v>
       </c>
@@ -30462,7 +30478,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>20</v>
       </c>
@@ -30470,7 +30486,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>22</v>
       </c>
@@ -30478,7 +30494,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>22</v>
       </c>
@@ -30486,7 +30502,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>22</v>
       </c>
@@ -30494,7 +30510,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>22</v>
       </c>
@@ -30502,7 +30518,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>22</v>
       </c>
@@ -30510,7 +30526,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>22</v>
       </c>
@@ -30518,7 +30534,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>22</v>
       </c>
@@ -30526,7 +30542,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>22</v>
       </c>
@@ -30534,7 +30550,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>22</v>
       </c>
@@ -30542,7 +30558,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>22</v>
       </c>
@@ -30550,7 +30566,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>22</v>
       </c>
@@ -30558,7 +30574,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>22</v>
       </c>
@@ -30566,7 +30582,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>22</v>
       </c>
@@ -30574,7 +30590,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>22</v>
       </c>
@@ -30582,7 +30598,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>22</v>
       </c>
@@ -30590,7 +30606,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>22</v>
       </c>
@@ -30598,7 +30614,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>22</v>
       </c>
@@ -30606,7 +30622,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>22</v>
       </c>
@@ -30614,7 +30630,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>22</v>
       </c>
@@ -30622,7 +30638,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>22</v>
       </c>
@@ -30630,7 +30646,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>24</v>
       </c>
@@ -30638,7 +30654,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>24</v>
       </c>
@@ -30646,7 +30662,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>24</v>
       </c>
@@ -30654,7 +30670,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A245">
         <v>24</v>
       </c>
@@ -30662,7 +30678,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A246">
         <v>24</v>
       </c>
@@ -30670,7 +30686,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A247">
         <v>24</v>
       </c>
@@ -30678,7 +30694,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A248">
         <v>24</v>
       </c>
@@ -30686,7 +30702,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A249">
         <v>24</v>
       </c>
@@ -30694,7 +30710,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A250">
         <v>24</v>
       </c>
@@ -30702,7 +30718,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A251">
         <v>24</v>
       </c>
@@ -30710,7 +30726,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A252">
         <v>24</v>
       </c>
@@ -30718,7 +30734,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A253">
         <v>24</v>
       </c>
@@ -30726,7 +30742,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A254">
         <v>24</v>
       </c>
@@ -30734,7 +30750,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A255">
         <v>24</v>
       </c>
@@ -30742,7 +30758,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A256">
         <v>24</v>
       </c>
@@ -30750,7 +30766,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A257">
         <v>24</v>
       </c>
@@ -30758,7 +30774,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A258">
         <v>24</v>
       </c>
@@ -30766,7 +30782,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A259">
         <v>24</v>
       </c>
@@ -30774,7 +30790,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A260">
         <v>24</v>
       </c>
@@ -30782,7 +30798,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A261">
         <v>24</v>
       </c>
@@ -30790,7 +30806,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A262">
         <v>26</v>
       </c>
@@ -30798,7 +30814,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A263">
         <v>26</v>
       </c>
@@ -30806,7 +30822,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A264">
         <v>26</v>
       </c>
@@ -30814,7 +30830,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A265">
         <v>26</v>
       </c>
@@ -30822,7 +30838,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A266">
         <v>26</v>
       </c>
@@ -30830,7 +30846,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A267">
         <v>26</v>
       </c>
@@ -30838,7 +30854,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A268">
         <v>26</v>
       </c>
@@ -30846,7 +30862,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A269">
         <v>26</v>
       </c>
@@ -30854,7 +30870,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A270">
         <v>26</v>
       </c>
@@ -30862,7 +30878,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A271">
         <v>26</v>
       </c>
@@ -30870,7 +30886,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A272">
         <v>26</v>
       </c>
@@ -30878,7 +30894,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A273">
         <v>26</v>
       </c>
@@ -30886,7 +30902,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A274">
         <v>26</v>
       </c>
@@ -30894,7 +30910,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A275">
         <v>26</v>
       </c>
@@ -30902,7 +30918,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A276">
         <v>26</v>
       </c>
@@ -30910,7 +30926,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A277">
         <v>26</v>
       </c>
@@ -30918,7 +30934,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A278">
         <v>26</v>
       </c>
@@ -30926,7 +30942,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A279">
         <v>26</v>
       </c>
@@ -30934,7 +30950,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A280">
         <v>26</v>
       </c>
@@ -30942,7 +30958,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A281">
         <v>26</v>
       </c>
@@ -30950,7 +30966,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A282">
         <v>28</v>
       </c>
@@ -30958,7 +30974,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A283">
         <v>28</v>
       </c>
@@ -30966,7 +30982,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A284">
         <v>28</v>
       </c>
@@ -30974,7 +30990,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="285" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A285">
         <v>28</v>
       </c>
@@ -30982,7 +30998,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A286">
         <v>28</v>
       </c>
@@ -30990,7 +31006,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A287">
         <v>28</v>
       </c>
@@ -30998,7 +31014,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A288">
         <v>28</v>
       </c>
@@ -31006,7 +31022,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A289">
         <v>28</v>
       </c>
@@ -31014,7 +31030,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A290">
         <v>28</v>
       </c>
@@ -31022,7 +31038,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A291">
         <v>28</v>
       </c>
@@ -31030,7 +31046,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A292">
         <v>28</v>
       </c>
@@ -31038,7 +31054,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A293">
         <v>28</v>
       </c>
@@ -31046,7 +31062,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A294">
         <v>28</v>
       </c>
@@ -31054,7 +31070,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A295">
         <v>28</v>
       </c>
@@ -31062,7 +31078,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A296">
         <v>28</v>
       </c>
@@ -31070,7 +31086,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A297">
         <v>28</v>
       </c>
@@ -31078,7 +31094,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A298">
         <v>28</v>
       </c>
@@ -31086,7 +31102,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A299">
         <v>28</v>
       </c>
@@ -31094,7 +31110,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A300">
         <v>28</v>
       </c>
@@ -31102,7 +31118,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A301">
         <v>28</v>
       </c>
@@ -31110,7 +31126,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="302" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A302">
         <v>30</v>
       </c>
@@ -31118,7 +31134,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="303" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A303">
         <v>30</v>
       </c>
@@ -31126,7 +31142,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="304" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A304">
         <v>30</v>
       </c>
@@ -31134,7 +31150,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="305" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A305">
         <v>30</v>
       </c>
@@ -31142,7 +31158,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="306" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A306">
         <v>30</v>
       </c>
@@ -31150,7 +31166,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="307" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A307">
         <v>30</v>
       </c>
@@ -31158,7 +31174,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="308" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A308">
         <v>30</v>
       </c>
@@ -31166,7 +31182,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="309" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A309">
         <v>30</v>
       </c>
@@ -31174,7 +31190,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="310" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A310">
         <v>30</v>
       </c>
@@ -31182,7 +31198,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="311" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A311">
         <v>30</v>
       </c>
@@ -31190,7 +31206,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="312" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A312">
         <v>30</v>
       </c>
@@ -31198,7 +31214,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="313" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A313">
         <v>30</v>
       </c>
@@ -31206,7 +31222,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="314" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A314">
         <v>30</v>
       </c>
@@ -31214,7 +31230,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="315" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A315">
         <v>30</v>
       </c>
@@ -31222,7 +31238,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="316" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A316">
         <v>30</v>
       </c>
@@ -31230,7 +31246,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="317" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A317">
         <v>30</v>
       </c>
@@ -31238,7 +31254,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="318" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A318">
         <v>30</v>
       </c>
@@ -31246,7 +31262,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="319" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A319">
         <v>30</v>
       </c>
@@ -31254,7 +31270,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="320" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A320">
         <v>30</v>
       </c>
@@ -31262,7 +31278,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="321" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A321">
         <v>30</v>
       </c>
@@ -31270,7 +31286,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="322" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A322">
         <v>33</v>
       </c>
@@ -31278,7 +31294,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="323" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A323">
         <v>33</v>
       </c>
@@ -31286,7 +31302,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="324" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A324">
         <v>33</v>
       </c>
@@ -31294,7 +31310,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="325" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A325">
         <v>33</v>
       </c>
@@ -31302,7 +31318,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="326" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A326">
         <v>33</v>
       </c>
@@ -31310,7 +31326,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="327" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A327">
         <v>33</v>
       </c>
@@ -31318,7 +31334,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="328" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A328">
         <v>33</v>
       </c>
@@ -31326,7 +31342,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="329" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A329">
         <v>33</v>
       </c>
@@ -31334,7 +31350,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="330" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A330">
         <v>33</v>
       </c>
@@ -31342,7 +31358,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="331" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A331">
         <v>33</v>
       </c>
@@ -31350,7 +31366,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="332" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A332">
         <v>33</v>
       </c>
@@ -31358,7 +31374,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="333" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A333">
         <v>33</v>
       </c>
@@ -31366,7 +31382,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="334" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A334">
         <v>33</v>
       </c>
@@ -31374,7 +31390,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="335" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A335">
         <v>33</v>
       </c>
@@ -31382,7 +31398,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="336" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A336">
         <v>33</v>
       </c>
@@ -31390,7 +31406,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="337" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A337">
         <v>33</v>
       </c>
@@ -31398,7 +31414,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="338" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A338">
         <v>33</v>
       </c>
@@ -31406,7 +31422,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="339" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A339">
         <v>33</v>
       </c>
@@ -31414,7 +31430,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="340" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A340">
         <v>33</v>
       </c>
@@ -31422,7 +31438,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="341" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A341">
         <v>33</v>
       </c>
@@ -31430,7 +31446,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="342" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A342">
         <v>37</v>
       </c>
@@ -31438,7 +31454,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="343" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A343">
         <v>37</v>
       </c>
@@ -31446,7 +31462,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="344" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A344">
         <v>37</v>
       </c>
@@ -31454,7 +31470,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="345" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A345">
         <v>37</v>
       </c>
@@ -31462,7 +31478,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="346" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A346">
         <v>37</v>
       </c>
@@ -31470,7 +31486,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="347" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A347">
         <v>37</v>
       </c>
@@ -31478,7 +31494,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="348" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A348">
         <v>37</v>
       </c>
@@ -31486,7 +31502,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="349" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A349">
         <v>37</v>
       </c>
@@ -31494,7 +31510,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="350" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A350">
         <v>37</v>
       </c>
@@ -31502,7 +31518,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="351" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A351">
         <v>37</v>
       </c>
@@ -31510,7 +31526,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="352" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A352">
         <v>37</v>
       </c>
@@ -31518,7 +31534,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="353" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A353">
         <v>37</v>
       </c>
@@ -31526,7 +31542,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="354" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A354">
         <v>37</v>
       </c>
@@ -31534,7 +31550,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="355" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A355">
         <v>37</v>
       </c>
@@ -31542,7 +31558,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="356" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A356">
         <v>37</v>
       </c>
@@ -31550,7 +31566,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="357" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A357">
         <v>37</v>
       </c>
@@ -31558,7 +31574,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="358" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A358">
         <v>37</v>
       </c>
@@ -31566,7 +31582,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="359" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A359">
         <v>37</v>
       </c>
@@ -31574,7 +31590,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="360" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A360">
         <v>37</v>
       </c>
@@ -31582,7 +31598,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="361" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A361">
         <v>37</v>
       </c>
@@ -31590,7 +31606,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="362" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A362">
         <v>40</v>
       </c>
@@ -31598,7 +31614,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="363" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A363">
         <v>40</v>
       </c>
@@ -31606,7 +31622,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="364" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A364">
         <v>40</v>
       </c>
@@ -31614,7 +31630,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="365" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A365">
         <v>40</v>
       </c>
@@ -31622,7 +31638,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="366" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A366">
         <v>40</v>
       </c>
@@ -31630,7 +31646,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="367" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A367">
         <v>40</v>
       </c>
@@ -31638,7 +31654,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="368" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A368">
         <v>40</v>
       </c>
@@ -31646,7 +31662,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="369" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A369">
         <v>40</v>
       </c>
@@ -31654,7 +31670,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="370" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A370">
         <v>40</v>
       </c>
@@ -31662,7 +31678,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="371" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A371">
         <v>40</v>
       </c>
@@ -31670,7 +31686,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="372" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A372">
         <v>40</v>
       </c>
@@ -31678,7 +31694,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="373" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A373">
         <v>40</v>
       </c>
@@ -31686,7 +31702,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="374" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A374">
         <v>40</v>
       </c>
@@ -31694,7 +31710,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="375" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A375">
         <v>40</v>
       </c>
@@ -31702,7 +31718,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="376" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A376">
         <v>40</v>
       </c>
@@ -31710,7 +31726,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="377" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A377">
         <v>40</v>
       </c>
@@ -31718,7 +31734,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="378" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A378">
         <v>40</v>
       </c>
@@ -31726,7 +31742,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="379" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A379">
         <v>40</v>
       </c>
@@ -31734,7 +31750,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="380" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A380">
         <v>40</v>
       </c>
@@ -31742,7 +31758,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="381" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A381">
         <v>40</v>
       </c>
